--- a/机电实验三数据.xlsx
+++ b/机电实验三数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\曾立\Desktop\机电实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A4CD78-3005-40C5-90B4-9ECAB92567D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B813D08C-0B33-497C-ABFA-21EEE228FB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5EF34041-18A9-46D9-AC4B-7DD94E5BBB75}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
         <v>-0.03</v>
       </c>
       <c r="C7" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D7" s="2">
         <v>48.68</v>
